--- a/Cuadros/q21.xlsx
+++ b/Cuadros/q21.xlsx
@@ -7,12 +7,13 @@
   </bookViews>
   <sheets>
     <sheet name="q21" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="q21_region" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t xml:space="preserve">q21_core</t>
   </si>
@@ -30,6 +31,33 @@
   </si>
   <si>
     <t xml:space="preserve">2 30% or more</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Year</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Total</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Latin America &amp; the Caribbean</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2. Western Europe &amp; North America</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3. Eastern, Southeast and Central Europe</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4. Africa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5. Asia &amp; the Pacific</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6. Central Asia &amp; Caucasus</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7. South West Asia/Middle East &amp; North Africa</t>
   </si>
 </sst>
 </file>
@@ -407,4 +435,242 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="false"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>2021</v>
+      </c>
+      <c r="B2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" t="n">
+        <v>535</v>
+      </c>
+      <c r="D2" t="n">
+        <v>184</v>
+      </c>
+      <c r="E2" t="n">
+        <v>41</v>
+      </c>
+      <c r="F2" t="n">
+        <v>36</v>
+      </c>
+      <c r="G2" t="n">
+        <v>192</v>
+      </c>
+      <c r="H2" t="n">
+        <v>118</v>
+      </c>
+      <c r="I2" t="n">
+        <v>18</v>
+      </c>
+      <c r="J2" t="n">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>2021</v>
+      </c>
+      <c r="B3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" t="n">
+        <v>250</v>
+      </c>
+      <c r="D3" t="n">
+        <v>90</v>
+      </c>
+      <c r="E3" t="n">
+        <v>37</v>
+      </c>
+      <c r="F3" t="n">
+        <v>25</v>
+      </c>
+      <c r="G3" t="n">
+        <v>87</v>
+      </c>
+      <c r="H3" t="n">
+        <v>64</v>
+      </c>
+      <c r="I3" t="n">
+        <v>15</v>
+      </c>
+      <c r="J3" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>2022</v>
+      </c>
+      <c r="B4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" t="n">
+        <v>548</v>
+      </c>
+      <c r="D4" t="n">
+        <v>177</v>
+      </c>
+      <c r="E4" t="n">
+        <v>45</v>
+      </c>
+      <c r="F4" t="n">
+        <v>35</v>
+      </c>
+      <c r="G4" t="n">
+        <v>206</v>
+      </c>
+      <c r="H4" t="n">
+        <v>121</v>
+      </c>
+      <c r="I4" t="n">
+        <v>21</v>
+      </c>
+      <c r="J4" t="n">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>2022</v>
+      </c>
+      <c r="B5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" t="n">
+        <v>272</v>
+      </c>
+      <c r="D5" t="n">
+        <v>107</v>
+      </c>
+      <c r="E5" t="n">
+        <v>37</v>
+      </c>
+      <c r="F5" t="n">
+        <v>29</v>
+      </c>
+      <c r="G5" t="n">
+        <v>87</v>
+      </c>
+      <c r="H5" t="n">
+        <v>69</v>
+      </c>
+      <c r="I5" t="n">
+        <v>15</v>
+      </c>
+      <c r="J5" t="n">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>2023</v>
+      </c>
+      <c r="B6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C6" t="n">
+        <v>519</v>
+      </c>
+      <c r="D6" t="n">
+        <v>168</v>
+      </c>
+      <c r="E6" t="n">
+        <v>46</v>
+      </c>
+      <c r="F6" t="n">
+        <v>35</v>
+      </c>
+      <c r="G6" t="n">
+        <v>192</v>
+      </c>
+      <c r="H6" t="n">
+        <v>118</v>
+      </c>
+      <c r="I6" t="n">
+        <v>18</v>
+      </c>
+      <c r="J6" t="n">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>2023</v>
+      </c>
+      <c r="B7" t="s">
+        <v>5</v>
+      </c>
+      <c r="C7" t="n">
+        <v>312</v>
+      </c>
+      <c r="D7" t="n">
+        <v>121</v>
+      </c>
+      <c r="E7" t="n">
+        <v>37</v>
+      </c>
+      <c r="F7" t="n">
+        <v>30</v>
+      </c>
+      <c r="G7" t="n">
+        <v>104</v>
+      </c>
+      <c r="H7" t="n">
+        <v>73</v>
+      </c>
+      <c r="I7" t="n">
+        <v>18</v>
+      </c>
+      <c r="J7" t="n">
+        <v>28</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
+</worksheet>
 </file>